--- a/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -64704,6 +64704,114 @@
       <c r="R1147" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>9961.75</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>10038.7998046875</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>9602.25</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>9602.25</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>1144504</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>9825</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>9365.650390625</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>9501.650390625</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>9501.650390625</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>1872140</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64749,7 +64749,7 @@
         <v>25</v>
       </c>
       <c r="O1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1148" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>1</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,495 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>9693.9501953125</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>9381.099609375</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>9635.7998046875</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>9635.7998046875</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>1738643</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>9666.150390625</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>9383</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>9430.75</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>9430.75</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>1285216</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>9430.75</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>9909.9501953125</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>9291.5</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>9386.0498046875</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>9386.0498046875</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>2981375</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>9350</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>9508</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>8744.599609375</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>9492.900390625</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>9492.900390625</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>1475526</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>9549.2001953125</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>9844</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>9509</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>9616.2001953125</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>9616.2001953125</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>1458813</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>9396.2001953125</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>9777.7001953125</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>9369.2998046875</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>9765.9501953125</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>9765.9501953125</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>1354537</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>9741</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>9925</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>9615</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>9888.150390625</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>9888.150390625</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>992528</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>9926.9501953125</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>10444.349609375</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>9735</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>10406.4501953125</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>10406.4501953125</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>2034553</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>10375.099609375</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>10921.349609375</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>10339.650390625</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>10891.5498046875</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>10891.5498046875</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>2102454</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJ-AUTO.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1158"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -5280,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q86" t="n">
         <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -5504,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6182,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7526,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="R129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -8198,7 +8198,7 @@
         <v>2</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -8758,7 +8758,7 @@
         <v>2</v>
       </c>
       <c r="R148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -10998,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -11278,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -11950,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="R205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -12230,7 +12230,7 @@
         <v>2</v>
       </c>
       <c r="R210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="R220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -13406,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="R231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -13798,7 +13798,7 @@
         <v>2</v>
       </c>
       <c r="R238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -14414,7 +14414,7 @@
         <v>2</v>
       </c>
       <c r="R249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -15142,7 +15142,7 @@
         <v>2</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -15422,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="R267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -15814,7 +15814,7 @@
         <v>2</v>
       </c>
       <c r="R274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="R284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="R305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -17886,7 +17886,7 @@
         <v>2</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -17942,7 +17942,7 @@
         <v>2</v>
       </c>
       <c r="R312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -17998,7 +17998,7 @@
         <v>2</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -18054,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -19006,7 +19006,7 @@
         <v>2</v>
       </c>
       <c r="R331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -21134,7 +21134,7 @@
         <v>2</v>
       </c>
       <c r="R369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -21414,7 +21414,7 @@
         <v>1</v>
       </c>
       <c r="R374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -21638,7 +21638,7 @@
         <v>2</v>
       </c>
       <c r="R378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -22198,7 +22198,7 @@
         <v>2</v>
       </c>
       <c r="R388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -25446,7 +25446,7 @@
         <v>2</v>
       </c>
       <c r="R446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -26006,7 +26006,7 @@
         <v>1</v>
       </c>
       <c r="R456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -26118,7 +26118,7 @@
         <v>2</v>
       </c>
       <c r="R458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -26678,7 +26678,7 @@
         <v>2</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -26846,7 +26846,7 @@
         <v>1</v>
       </c>
       <c r="R471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -27518,7 +27518,7 @@
         <v>1</v>
       </c>
       <c r="R483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -27742,7 +27742,7 @@
         <v>2</v>
       </c>
       <c r="R487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -27966,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="R491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -28134,7 +28134,7 @@
         <v>2</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
@@ -28806,7 +28806,7 @@
         <v>1</v>
       </c>
       <c r="R506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -29142,7 +29142,7 @@
         <v>2</v>
       </c>
       <c r="R512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -29926,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="R526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -30262,7 +30262,7 @@
         <v>1</v>
       </c>
       <c r="R532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -30878,7 +30878,7 @@
         <v>1</v>
       </c>
       <c r="R543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -31606,7 +31606,7 @@
         <v>2</v>
       </c>
       <c r="R556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -32334,7 +32334,7 @@
         <v>1</v>
       </c>
       <c r="R569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -32558,7 +32558,7 @@
         <v>2</v>
       </c>
       <c r="R573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -33230,7 +33230,7 @@
         <v>2</v>
       </c>
       <c r="R585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -34798,7 +34798,7 @@
         <v>1</v>
       </c>
       <c r="R613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -35246,7 +35246,7 @@
         <v>2</v>
       </c>
       <c r="R621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -36254,7 +36254,7 @@
         <v>1</v>
       </c>
       <c r="R639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -37150,7 +37150,7 @@
         <v>2</v>
       </c>
       <c r="R655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -39054,7 +39054,7 @@
         <v>2</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690">
@@ -39334,7 +39334,7 @@
         <v>1</v>
       </c>
       <c r="R694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -39838,7 +39838,7 @@
         <v>2</v>
       </c>
       <c r="R703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -40006,7 +40006,7 @@
         <v>1</v>
       </c>
       <c r="R706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -40398,7 +40398,7 @@
         <v>2</v>
       </c>
       <c r="R713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714">
@@ -40790,7 +40790,7 @@
         <v>2</v>
       </c>
       <c r="R720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -40846,7 +40846,7 @@
         <v>1</v>
       </c>
       <c r="R721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -41518,7 +41518,7 @@
         <v>1</v>
       </c>
       <c r="R733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -42974,7 +42974,7 @@
         <v>1</v>
       </c>
       <c r="R759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -43534,7 +43534,7 @@
         <v>2</v>
       </c>
       <c r="R769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -44374,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -44430,7 +44430,7 @@
         <v>1</v>
       </c>
       <c r="R785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -46446,7 +46446,7 @@
         <v>2</v>
       </c>
       <c r="R821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -47174,7 +47174,7 @@
         <v>2</v>
       </c>
       <c r="R834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -47342,7 +47342,7 @@
         <v>1</v>
       </c>
       <c r="R837" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -47734,7 +47734,7 @@
         <v>2</v>
       </c>
       <c r="R844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845">
@@ -47846,7 +47846,7 @@
         <v>1</v>
       </c>
       <c r="R846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -48238,7 +48238,7 @@
         <v>2</v>
       </c>
       <c r="R853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -48574,7 +48574,7 @@
         <v>1</v>
       </c>
       <c r="R859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -49022,7 +49022,7 @@
         <v>2</v>
       </c>
       <c r="R867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -49358,7 +49358,7 @@
         <v>1</v>
       </c>
       <c r="R873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -50198,7 +50198,7 @@
         <v>2</v>
       </c>
       <c r="R888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -51542,7 +51542,7 @@
         <v>2</v>
       </c>
       <c r="R912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -54062,7 +54062,7 @@
         <v>1</v>
       </c>
       <c r="R957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -58430,7 +58430,7 @@
         <v>1</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -58822,7 +58822,7 @@
         <v>2</v>
       </c>
       <c r="R1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -58878,7 +58878,7 @@
         <v>1</v>
       </c>
       <c r="R1043" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044">
@@ -59270,7 +59270,7 @@
         <v>1</v>
       </c>
       <c r="R1050" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -60390,7 +60390,7 @@
         <v>2</v>
       </c>
       <c r="R1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -60894,7 +60894,7 @@
         <v>1</v>
       </c>
       <c r="R1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -61006,7 +61006,7 @@
         <v>2</v>
       </c>
       <c r="R1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -62406,7 +62406,7 @@
         <v>2</v>
       </c>
       <c r="R1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -62630,7 +62630,7 @@
         <v>1</v>
       </c>
       <c r="R1110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111">
@@ -64478,7 +64478,7 @@
         <v>2</v>
       </c>
       <c r="R1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -64758,7 +64758,7 @@
         <v>1</v>
       </c>
       <c r="R1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -64869,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64923,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64977,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65031,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65085,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>2</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65139,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65193,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65247,7 +65261,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65301,7 +65317,1569 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>10926</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>11154.099609375</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>10796.25</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>10830.099609375</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>1842893</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>10830.099609375</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>11893.9501953125</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>10780</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>11737.150390625</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>3770361</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>11734</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>12054</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>11640.0498046875</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>11941.7001953125</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>2337237</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>12774</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>12666.400390625</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>2624096</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>12553.599609375</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>12651.150390625</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>11639</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>11774.400390625</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>2470746</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>11774.400390625</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>12030.9501953125</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>11525</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>11876.9501953125</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>1346871</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>11928.7998046875</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>11990.099609375</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>9841.099609375</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>10063.9501953125</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>6370837</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>10063</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>10829.849609375</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>9881.400390625</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>10206.099609375</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>5923503</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>10206.099609375</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>10292.75</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>9875.9501953125</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>2461854</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>9896.5</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>10079.7998046875</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>9365</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>9910.400390625</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>3406508</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>9850.0498046875</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>10032.900390625</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>9400</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>9482.9501953125</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>1446288</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>9459.0498046875</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>9698.599609375</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>9414.349609375</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>9481.650390625</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>1559951</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>9636.349609375</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>8992.25</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>9033.650390625</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>3413151</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>9078.7998046875</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>8746.5</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>9099.900390625</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>3703433</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>9096</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>9171</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>8903.75</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>9021.400390625</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>1795444</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>9064</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>9078.75</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>8759.400390625</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>8787.25</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>1821320</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>8849.9501953125</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>9179.150390625</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>8719.900390625</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>8928.2998046875</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>1766761</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>8928</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>9109.9501953125</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>8551</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>8965.7001953125</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>2990734</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>9004.9501953125</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>9093.900390625</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>8612</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>8764</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>1887695</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>8704.5</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>8799</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>8525</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>8581.400390625</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>1518355</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>8600</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>8609.599609375</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>8360</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>8401.5</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>1561801</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>8378.0498046875</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>9178</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>8290.349609375</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>9155.599609375</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>2835330</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>9150</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>8811</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>8989.400390625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>2261723</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>8989.400390625</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>9069.7998046875</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>8419.900390625</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>8506.5</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>1462894</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>8494</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>8640</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>8382.650390625</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>8506.0498046875</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>1042491</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>8450.5</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>8488.4501953125</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>7886.2998046875</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>7902.89990234375</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>1444528</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>7934.9501953125</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>7998.2998046875</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>7301</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>7574.75</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>4184870</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>7573</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>7573</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>7328</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>7504.7001953125</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>1892006</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>8151</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>7433</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>8067.85009765625</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>2005128</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>8117.7998046875</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>8213.9501953125</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>7810.75</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>7878.85009765625</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>2713321</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
